--- a/FINAL_PROJECT_Gerrit_Kat_04_18_2022.xlsx
+++ b/FINAL_PROJECT_Gerrit_Kat_04_18_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\School Projects\PROG 280 - Advanced Programming\Blackjack-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56A77C2-741F-4B63-871C-16C6BB0C3EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51692EB0-C141-4B82-8579-5DED2E5250D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -142,37 +142,46 @@
     <t>Establish a connection between players</t>
   </si>
   <si>
-    <t>Create User Classes</t>
-  </si>
-  <si>
-    <t>User Accounts</t>
-  </si>
-  <si>
     <t>2 hours</t>
   </si>
   <si>
     <t>Create Card/Deck Classes</t>
   </si>
   <si>
-    <t>Created card class with constructor, created deck with option to add cards and method to shuffle the deck.</t>
-  </si>
-  <si>
     <t>30 mins</t>
   </si>
   <si>
     <t>Add classes to manage the cards in a deck and shuffle them for randomization.</t>
   </si>
   <si>
-    <t>Created the starting form with buttons to begin types of games, added background images to both the starting form and the game board form.</t>
-  </si>
-  <si>
-    <t>Create Dealing Cards Methods</t>
-  </si>
-  <si>
-    <t>Created basic "dealer rules" AI that stands on 17 or higher and hits below that.</t>
-  </si>
-  <si>
     <t>1 hour</t>
+  </si>
+  <si>
+    <t>Created server host form and added panel to main form of game item to serve as the chat window when connecting to the server.</t>
+  </si>
+  <si>
+    <t>Revised rules and methods to prevent illogical wins/losses, prevent cross-thread errors and allow multiple rounds</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Made derived class for aces with option to swap value if the value would cause the total to exceed 21.</t>
+  </si>
+  <si>
+    <t>1.5 hours</t>
+  </si>
+  <si>
+    <t>Created starting methods for server-side host to instantiate a server for users. Started on client-side connection. Working on methods to populate a combo box with the usernames of currently logged in users and transfer the connection to another form when the game begins.</t>
+  </si>
+  <si>
+    <t>Send Game Challenge via Chat</t>
+  </si>
+  <si>
+    <t>Allow a user to send a challenge via the chat system to initiate a game between players</t>
+  </si>
+  <si>
+    <t>Created challenge class, added detection to the TcpListener. Testing to ensure the message only arrives for the individual it was intended for.</t>
   </si>
 </sst>
 </file>
@@ -334,8 +343,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:F186" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A2:F186" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:F185" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A2:F185" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature" dataDxfId="12"/>
@@ -626,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,16 +692,16 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -703,16 +712,16 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -722,24 +731,39 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
@@ -748,27 +772,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL_PROJECT_Gerrit_Kat_04_18_2022.xlsx
+++ b/FINAL_PROJECT_Gerrit_Kat_04_18_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\School Projects\PROG 280 - Advanced Programming\Blackjack-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51692EB0-C141-4B82-8579-5DED2E5250D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADECDD9C-60A6-46C6-AB8C-8E618AFC8FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Task</t>
   </si>
@@ -182,6 +182,27 @@
   </si>
   <si>
     <t>Created challenge class, added detection to the TcpListener. Testing to ensure the message only arrives for the individual it was intended for.</t>
+  </si>
+  <si>
+    <t>Instantiate online game from challenge</t>
+  </si>
+  <si>
+    <t>Make a game start when a challenge is accepted</t>
+  </si>
+  <si>
+    <t>Created override method on the gameboard class to instantiate games for both issuer and receiver. Created an independent server on the issuer's side that manages the game.</t>
+  </si>
+  <si>
+    <t>Create connection between players for game</t>
+  </si>
+  <si>
+    <t>Allow the host to send cards and information to the client to play a game of blackjack.</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>Wired up the majority of delegates and settings, successfully got host to report when client connects and methods seem to be working host side. Chasing down an issue with cards not appearing for the client player, now an exception is thrown on every attempt to send a card as the writer is null despite being instantiated on the server's construction.</t>
   </si>
 </sst>
 </file>
@@ -635,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,6 +800,46 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
